--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Tctn1-Tmem67.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.67298913193934</v>
+        <v>2.98023</v>
       </c>
       <c r="H2">
-        <v>2.67298913193934</v>
+        <v>8.94069</v>
       </c>
       <c r="I2">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="J2">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.94039619478056</v>
+        <v>3.235110666666667</v>
       </c>
       <c r="N2">
-        <v>1.94039619478056</v>
+        <v>9.705332</v>
       </c>
       <c r="O2">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="P2">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="Q2">
-        <v>5.186657940304888</v>
+        <v>9.641373862120002</v>
       </c>
       <c r="R2">
-        <v>5.186657940304888</v>
+        <v>86.77236475908001</v>
       </c>
       <c r="S2">
-        <v>0.0501501573193727</v>
+        <v>0.07470467230866258</v>
       </c>
       <c r="T2">
-        <v>0.0501501573193727</v>
+        <v>0.07470467230866258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.67298913193934</v>
+        <v>2.98023</v>
       </c>
       <c r="H3">
-        <v>2.67298913193934</v>
+        <v>8.94069</v>
       </c>
       <c r="I3">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="J3">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.47518802301037</v>
+        <v>4.481675333333333</v>
       </c>
       <c r="N3">
-        <v>4.47518802301037</v>
+        <v>13.445026</v>
       </c>
       <c r="O3">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841476</v>
       </c>
       <c r="P3">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841477</v>
       </c>
       <c r="Q3">
-        <v>11.96212894889182</v>
+        <v>13.35642327866</v>
       </c>
       <c r="R3">
-        <v>11.96212894889182</v>
+        <v>120.20780950794</v>
       </c>
       <c r="S3">
-        <v>0.1156626589927546</v>
+        <v>0.1034901496941525</v>
       </c>
       <c r="T3">
-        <v>0.1156626589927546</v>
+        <v>0.1034901496941525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.67298913193934</v>
+        <v>2.98023</v>
       </c>
       <c r="H4">
-        <v>2.67298913193934</v>
+        <v>8.94069</v>
       </c>
       <c r="I4">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="J4">
-        <v>0.2327313413802843</v>
+        <v>0.2389353094626875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.58919330154164</v>
+        <v>2.630387</v>
       </c>
       <c r="N4">
-        <v>2.58919330154164</v>
+        <v>7.891161</v>
       </c>
       <c r="O4">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="P4">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="Q4">
-        <v>6.920885555510942</v>
+        <v>7.839158249010001</v>
       </c>
       <c r="R4">
-        <v>6.920885555510942</v>
+        <v>70.55242424109001</v>
       </c>
       <c r="S4">
-        <v>0.06691852506815694</v>
+        <v>0.06074048745987239</v>
       </c>
       <c r="T4">
-        <v>0.06691852506815694</v>
+        <v>0.06074048745987238</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.52370641111134</v>
+        <v>5.747723</v>
       </c>
       <c r="H5">
-        <v>5.52370641111134</v>
+        <v>17.243169</v>
       </c>
       <c r="I5">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="J5">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.94039619478056</v>
+        <v>3.235110666666667</v>
       </c>
       <c r="N5">
-        <v>1.94039619478056</v>
+        <v>9.705332</v>
       </c>
       <c r="O5">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="P5">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="Q5">
-        <v>10.71817890120543</v>
+        <v>18.59451998634533</v>
       </c>
       <c r="R5">
-        <v>10.71817890120543</v>
+        <v>167.350679877108</v>
       </c>
       <c r="S5">
-        <v>0.1036348192341052</v>
+        <v>0.1440767199967664</v>
       </c>
       <c r="T5">
-        <v>0.1036348192341052</v>
+        <v>0.1440767199967664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.52370641111134</v>
+        <v>5.747723</v>
       </c>
       <c r="H6">
-        <v>5.52370641111134</v>
+        <v>17.243169</v>
       </c>
       <c r="I6">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="J6">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.47518802301037</v>
+        <v>4.481675333333333</v>
       </c>
       <c r="N6">
-        <v>4.47518802301037</v>
+        <v>13.445026</v>
       </c>
       <c r="O6">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841476</v>
       </c>
       <c r="P6">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841477</v>
       </c>
       <c r="Q6">
-        <v>24.71962477363106</v>
+        <v>25.75942839193267</v>
       </c>
       <c r="R6">
-        <v>24.71962477363106</v>
+        <v>231.834855527394</v>
       </c>
       <c r="S6">
-        <v>0.239015775773443</v>
+        <v>0.1995928883577855</v>
       </c>
       <c r="T6">
-        <v>0.239015775773443</v>
+        <v>0.1995928883577856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.52370641111134</v>
+        <v>5.747723</v>
       </c>
       <c r="H7">
-        <v>5.52370641111134</v>
+        <v>17.243169</v>
       </c>
       <c r="I7">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="J7">
-        <v>0.4809370854104886</v>
+        <v>0.4608147605086877</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.58919330154164</v>
+        <v>2.630387</v>
       </c>
       <c r="N7">
-        <v>2.58919330154164</v>
+        <v>7.891161</v>
       </c>
       <c r="O7">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="P7">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="Q7">
-        <v>14.30194363933209</v>
+        <v>15.118735858801</v>
       </c>
       <c r="R7">
-        <v>14.30194363933209</v>
+        <v>136.068622729209</v>
       </c>
       <c r="S7">
-        <v>0.1382864904029404</v>
+        <v>0.1171451521541358</v>
       </c>
       <c r="T7">
-        <v>0.1382864904029404</v>
+        <v>0.1171451521541358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.28860384158038</v>
+        <v>3.745004666666667</v>
       </c>
       <c r="H8">
-        <v>3.28860384158038</v>
+        <v>11.235014</v>
       </c>
       <c r="I8">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="J8">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.94039619478056</v>
+        <v>3.235110666666667</v>
       </c>
       <c r="N8">
-        <v>1.94039619478056</v>
+        <v>9.705332</v>
       </c>
       <c r="O8">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="P8">
-        <v>0.2154851900132655</v>
+        <v>0.3126564779255809</v>
       </c>
       <c r="Q8">
-        <v>6.381194380343301</v>
+        <v>12.11550454384978</v>
       </c>
       <c r="R8">
-        <v>6.381194380343301</v>
+        <v>109.039540894648</v>
       </c>
       <c r="S8">
-        <v>0.06170021345978755</v>
+        <v>0.09387508562015195</v>
       </c>
       <c r="T8">
-        <v>0.06170021345978755</v>
+        <v>0.09387508562015195</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.28860384158038</v>
+        <v>3.745004666666667</v>
       </c>
       <c r="H9">
-        <v>3.28860384158038</v>
+        <v>11.235014</v>
       </c>
       <c r="I9">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="J9">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.47518802301037</v>
+        <v>4.481675333333333</v>
       </c>
       <c r="N9">
-        <v>4.47518802301037</v>
+        <v>13.445026</v>
       </c>
       <c r="O9">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841476</v>
       </c>
       <c r="P9">
-        <v>0.496979299422166</v>
+        <v>0.4331304147841477</v>
       </c>
       <c r="Q9">
-        <v>14.71712052426641</v>
+        <v>16.78389503781822</v>
       </c>
       <c r="R9">
-        <v>14.71712052426641</v>
+        <v>151.055055340364</v>
       </c>
       <c r="S9">
-        <v>0.1423008646559683</v>
+        <v>0.1300473767322096</v>
       </c>
       <c r="T9">
-        <v>0.1423008646559683</v>
+        <v>0.1300473767322096</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.28860384158038</v>
+        <v>3.745004666666667</v>
       </c>
       <c r="H10">
-        <v>3.28860384158038</v>
+        <v>11.235014</v>
       </c>
       <c r="I10">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="J10">
-        <v>0.2863315732092271</v>
+        <v>0.3002499300286249</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.58919330154164</v>
+        <v>2.630387</v>
       </c>
       <c r="N10">
-        <v>2.58919330154164</v>
+        <v>7.891161</v>
       </c>
       <c r="O10">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="P10">
-        <v>0.2875355105645686</v>
+        <v>0.2542131072902715</v>
       </c>
       <c r="Q10">
-        <v>8.514831038044026</v>
+        <v>9.850811590139333</v>
       </c>
       <c r="R10">
-        <v>8.514831038044026</v>
+        <v>88.65730431125399</v>
       </c>
       <c r="S10">
-        <v>0.08233049509347128</v>
+        <v>0.07632746767626332</v>
       </c>
       <c r="T10">
-        <v>0.08233049509347128</v>
+        <v>0.07632746767626332</v>
       </c>
     </row>
   </sheetData>
